--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/67/word_level_predictions_67.xlsx
@@ -502,468 +502,468 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="inlineStr">
+      <c r="A7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>Please</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K7" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="A8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>contact</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="A9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K9" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="A10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G52" s="2" t="b">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3310,208 +3310,208 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" t="n">
         <v>3</v>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" t="n">
         <v>8</v>
       </c>
-      <c r="E56" s="2" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
+      <c r="A57" t="n">
         <v>3</v>
       </c>
-      <c r="B57" s="2" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D57" s="2" t="n">
+      <c r="D57" t="n">
         <v>9</v>
       </c>
-      <c r="E57" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F57" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G57" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L57" s="2" t="inlineStr">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K57" t="b">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
+      <c r="A58" t="n">
         <v>3</v>
       </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>re-install</t>
         </is>
       </c>
-      <c r="D58" s="2" t="n">
+      <c r="D58" t="n">
         <v>10</v>
       </c>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G58" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L58" s="2" t="inlineStr">
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
+      <c r="A59" t="n">
         <v>3</v>
       </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="D59" t="n">
         <v>11</v>
       </c>
-      <c r="E59" s="2" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F59" s="2" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2" t="inlineStr">
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4662,416 +4662,416 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n">
+      <c r="A82" t="n">
         <v>5</v>
       </c>
-      <c r="B82" s="2" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C82" s="2" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>Lower</t>
         </is>
       </c>
-      <c r="D82" s="2" t="n">
+      <c r="D82" t="n">
         <v>10</v>
       </c>
-      <c r="E82" s="2" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F82" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G82" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K82" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L82" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I82" t="b">
+        <v>1</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K82" t="b">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n">
+      <c r="A83" t="n">
         <v>5</v>
       </c>
-      <c r="B83" s="2" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C83" s="2" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D83" s="2" t="n">
+      <c r="D83" t="n">
         <v>11</v>
       </c>
-      <c r="E83" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F83" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G83" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K83" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L83" s="2" t="inlineStr">
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I83" t="b">
+        <v>1</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K83" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="n">
+      <c r="A84" t="n">
         <v>5</v>
       </c>
-      <c r="B84" s="2" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C84" s="2" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>immediately</t>
         </is>
       </c>
-      <c r="D84" s="2" t="n">
+      <c r="D84" t="n">
         <v>12</v>
       </c>
-      <c r="E84" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G84" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K84" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L84" s="2" t="inlineStr">
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I84" t="b">
+        <v>1</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K84" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="n">
+      <c r="A85" t="n">
         <v>5</v>
       </c>
-      <c r="B85" s="2" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C85" s="2" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D85" s="2" t="n">
+      <c r="D85" t="n">
         <v>13</v>
       </c>
-      <c r="E85" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G85" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K85" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L85" s="2" t="inlineStr">
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I85" t="b">
+        <v>1</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K85" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="n">
+      <c r="A86" t="n">
         <v>5</v>
       </c>
-      <c r="B86" s="2" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C86" s="2" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D86" s="2" t="n">
+      <c r="D86" t="n">
         <v>14</v>
       </c>
-      <c r="E86" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F86" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G86" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K86" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L86" s="2" t="inlineStr">
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I86" t="b">
+        <v>1</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K86" t="b">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n">
+      <c r="A87" t="n">
         <v>5</v>
       </c>
-      <c r="B87" s="2" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C87" s="2" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D87" s="2" t="n">
+      <c r="D87" t="n">
         <v>15</v>
       </c>
-      <c r="E87" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F87" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G87" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H87" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I87" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J87" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K87" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L87" s="2" t="inlineStr">
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I87" t="b">
+        <v>1</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K87" t="b">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n">
+      <c r="A88" t="n">
         <v>5</v>
       </c>
-      <c r="B88" s="2" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C88" s="2" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D88" s="2" t="n">
+      <c r="D88" t="n">
         <v>16</v>
       </c>
-      <c r="E88" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F88" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G88" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K88" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L88" s="2" t="inlineStr">
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I88" t="b">
+        <v>1</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K88" t="b">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n">
+      <c r="A89" t="n">
         <v>5</v>
       </c>
-      <c r="B89" s="2" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C89" s="2" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>manually</t>
         </is>
       </c>
-      <c r="D89" s="2" t="n">
+      <c r="D89" t="n">
         <v>17</v>
       </c>
-      <c r="E89" s="2" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F89" s="2" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G89" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K89" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L89" s="2" t="inlineStr">
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K89" t="b">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G96" s="2" t="b">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="F104" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G104" s="2" t="b">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="L104" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="F105" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G105" s="2" t="b">
@@ -5905,7 +5905,7 @@
       </c>
       <c r="L105" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5933,7 +5933,7 @@
       </c>
       <c r="F106" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G106" s="2" t="b">
@@ -5957,7 +5957,7 @@
       </c>
       <c r="L106" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="F107" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G107" s="2" t="b">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="L107" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="F108" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G108" s="2" t="b">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="L108" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6089,7 +6089,7 @@
       </c>
       <c r="F109" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G109" s="2" t="b">
@@ -6113,7 +6113,7 @@
       </c>
       <c r="L109" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="F110" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G110" s="2" t="b">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="L110" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6193,7 +6193,7 @@
       </c>
       <c r="F111" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G111" s="2" t="b">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="L111" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="F112" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G112" s="2" t="b">
@@ -6269,161 +6269,161 @@
       </c>
       <c r="L112" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
+      <c r="A113" t="n">
         <v>7</v>
       </c>
-      <c r="B113" s="2" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C113" s="2" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D113" s="2" t="n">
+      <c r="D113" t="n">
         <v>12</v>
       </c>
-      <c r="E113" s="2" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F113" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G113" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H113" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I113" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J113" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K113" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L113" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G113" t="b">
+        <v>1</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I113" t="b">
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K113" t="b">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
+      <c r="A114" t="n">
         <v>7</v>
       </c>
-      <c r="B114" s="2" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C114" s="2" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D114" s="2" t="n">
+      <c r="D114" t="n">
         <v>13</v>
       </c>
-      <c r="E114" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F114" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G114" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H114" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I114" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K114" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L114" s="2" t="inlineStr">
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G114" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I114" t="b">
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K114" t="b">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" t="n">
         <v>7</v>
       </c>
-      <c r="B115" s="2" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C115" s="2" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D115" s="2" t="n">
+      <c r="D115" t="n">
         <v>14</v>
       </c>
-      <c r="E115" s="2" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F115" s="2" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G115" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L115" s="2" t="inlineStr">
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6482,416 +6482,416 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
+      <c r="A117" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C117" s="2" t="inlineStr">
         <is>
           <t>Extra</t>
         </is>
       </c>
-      <c r="D117" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" t="inlineStr">
+      <c r="D117" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="F117" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G117" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117" t="inlineStr">
+      <c r="G117" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I117" t="b">
-        <v>1</v>
-      </c>
-      <c r="J117" t="inlineStr">
+      <c r="I117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J117" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K117" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L117" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>payload</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G118" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K117" t="b">
-        <v>1</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="n">
+      <c r="I118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J118" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K118" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L118" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B119" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>payload</t>
-        </is>
-      </c>
-      <c r="D118" t="n">
-        <v>1</v>
-      </c>
-      <c r="E118" t="inlineStr">
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>detected</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E119" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F119" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G119" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>Max</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G118" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" t="inlineStr">
+      <c r="G120" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I118" t="b">
-        <v>1</v>
-      </c>
-      <c r="J118" t="inlineStr">
+      <c r="I120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>altitude</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K118" t="b">
-        <v>1</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="n">
+      <c r="I121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B122" s="2" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>detected</t>
-        </is>
-      </c>
-      <c r="D119" t="n">
-        <v>2</v>
-      </c>
-      <c r="E119" t="inlineStr">
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>and</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J122" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K122" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C123" s="2" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E123" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G123" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>set</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E124" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="F124" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G119" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" t="inlineStr">
+      <c r="G124" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I119" t="b">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K119" t="b">
-        <v>1</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>8</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="D120" t="n">
-        <v>3</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G120" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K120" t="b">
-        <v>1</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>8</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>altitude</t>
-        </is>
-      </c>
-      <c r="D121" t="n">
-        <v>4</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>8</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="D122" t="n">
-        <v>5</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G122" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I122" t="b">
-        <v>1</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K122" t="b">
-        <v>1</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>8</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>distance</t>
-        </is>
-      </c>
-      <c r="D123" t="n">
-        <v>6</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G123" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I123" t="b">
-        <v>1</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K123" t="b">
-        <v>1</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>8</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>set</t>
-        </is>
-      </c>
-      <c r="D124" t="n">
-        <v>7</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G124" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I124" t="b">
-        <v>1</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K124" t="b">
-        <v>1</v>
-      </c>
-      <c r="L124" t="inlineStr">
+      <c r="I124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F125" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G125" s="2" t="b">
@@ -6933,11 +6933,11 @@
         </is>
       </c>
       <c r="I125" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K125" s="2" t="b">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -6985,11 +6985,11 @@
         </is>
       </c>
       <c r="I126" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K126" s="2" t="b">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G127" s="2" t="b">
@@ -7037,11 +7037,11 @@
         </is>
       </c>
       <c r="I127" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K127" s="2" t="b">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -7314,780 +7314,780 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n">
+      <c r="A133" t="n">
         <v>9</v>
       </c>
-      <c r="B133" s="2" t="inlineStr">
+      <c r="B133" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C133" s="2" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D133" s="2" t="n">
+      <c r="D133" t="n">
         <v>4</v>
       </c>
-      <c r="E133" s="2" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F133" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G133" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K133" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L133" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G133" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I133" t="b">
+        <v>1</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="n">
+      <c r="A134" t="n">
         <v>9</v>
       </c>
-      <c r="B134" s="2" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C134" s="2" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D134" s="2" t="n">
+      <c r="D134" t="n">
         <v>5</v>
       </c>
-      <c r="E134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K134" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L134" s="2" t="inlineStr">
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I134" t="b">
+        <v>1</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K134" t="b">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n">
+      <c r="A135" t="n">
         <v>9</v>
       </c>
-      <c r="B135" s="2" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C135" s="2" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>USB</t>
         </is>
       </c>
-      <c r="D135" s="2" t="n">
+      <c r="D135" t="n">
         <v>6</v>
       </c>
-      <c r="E135" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G135" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K135" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L135" s="2" t="inlineStr">
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G135" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I135" t="b">
+        <v>1</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n">
+      <c r="A136" t="n">
         <v>9</v>
       </c>
-      <c r="B136" s="2" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C136" s="2" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>connection</t>
         </is>
       </c>
-      <c r="D136" s="2" t="n">
+      <c r="D136" t="n">
         <v>7</v>
       </c>
-      <c r="E136" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F136" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G136" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K136" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L136" s="2" t="inlineStr">
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G136" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I136" t="b">
+        <v>1</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n">
+      <c r="A137" t="n">
         <v>9</v>
       </c>
-      <c r="B137" s="2" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C137" s="2" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D137" s="2" t="n">
+      <c r="D137" t="n">
         <v>8</v>
       </c>
-      <c r="E137" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F137" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G137" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K137" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L137" s="2" t="inlineStr">
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G137" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I137" t="b">
+        <v>1</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="n">
+      <c r="A138" t="n">
         <v>9</v>
       </c>
-      <c r="B138" s="2" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C138" s="2" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>aircraft</t>
         </is>
       </c>
-      <c r="D138" s="2" t="n">
+      <c r="D138" t="n">
         <v>9</v>
       </c>
-      <c r="E138" s="2" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F138" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G138" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J138" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K138" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L138" s="2" t="inlineStr">
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G138" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I138" t="b">
+        <v>1</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="n">
+      <c r="A139" t="n">
         <v>9</v>
       </c>
-      <c r="B139" s="2" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C139" s="2" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D139" s="2" t="n">
+      <c r="D139" t="n">
         <v>10</v>
       </c>
-      <c r="E139" s="2" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F139" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G139" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K139" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L139" s="2" t="inlineStr">
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G139" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" t="b">
+        <v>1</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="n">
+      <c r="A140" t="n">
         <v>9</v>
       </c>
-      <c r="B140" s="2" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C140" s="2" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D140" s="2" t="n">
+      <c r="D140" t="n">
         <v>11</v>
       </c>
-      <c r="E140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K140" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L140" s="2" t="inlineStr">
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" t="b">
+        <v>1</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n">
+      <c r="A141" t="n">
         <v>9</v>
       </c>
-      <c r="B141" s="2" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C141" s="2" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D141" s="2" t="n">
+      <c r="D141" t="n">
         <v>12</v>
       </c>
-      <c r="E141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K141" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L141" s="2" t="inlineStr">
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" t="b">
+        <v>1</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n">
+      <c r="A142" t="n">
         <v>9</v>
       </c>
-      <c r="B142" s="2" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C142" s="2" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>if</t>
         </is>
       </c>
-      <c r="D142" s="2" t="n">
+      <c r="D142" t="n">
         <v>13</v>
       </c>
-      <c r="E142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K142" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L142" s="2" t="inlineStr">
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" t="b">
+        <v>1</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n">
+      <c r="A143" t="n">
         <v>9</v>
       </c>
-      <c r="B143" s="2" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C143" s="2" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>this</t>
         </is>
       </c>
-      <c r="D143" s="2" t="n">
+      <c r="D143" t="n">
         <v>14</v>
       </c>
-      <c r="E143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K143" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L143" s="2" t="inlineStr">
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" t="b">
+        <v>1</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n">
+      <c r="A144" t="n">
         <v>9</v>
       </c>
-      <c r="B144" s="2" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C144" s="2" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D144" s="2" t="n">
+      <c r="D144" t="n">
         <v>15</v>
       </c>
-      <c r="E144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K144" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L144" s="2" t="inlineStr">
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" t="b">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n">
+      <c r="A145" t="n">
         <v>9</v>
       </c>
-      <c r="B145" s="2" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C145" s="2" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>persists</t>
         </is>
       </c>
-      <c r="D145" s="2" t="n">
+      <c r="D145" t="n">
         <v>16</v>
       </c>
-      <c r="E145" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F145" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G145" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K145" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L145" s="2" t="inlineStr">
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G145" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" t="b">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
+      <c r="A146" t="n">
         <v>9</v>
       </c>
-      <c r="B146" s="2" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C146" s="2" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>after</t>
         </is>
       </c>
-      <c r="D146" s="2" t="n">
+      <c r="D146" t="n">
         <v>17</v>
       </c>
-      <c r="E146" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F146" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L146" s="2" t="inlineStr">
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I146" t="b">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
+      <c r="A147" t="n">
         <v>9</v>
       </c>
-      <c r="B147" s="2" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C147" s="2" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>restarting</t>
         </is>
       </c>
-      <c r="D147" s="2" t="n">
+      <c r="D147" t="n">
         <v>18</v>
       </c>
-      <c r="E147" s="2" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F147" s="2" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G147" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L147" s="2" t="inlineStr">
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I147" t="b">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -8533,7 +8533,7 @@
       </c>
       <c r="F156" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G156" s="2" t="b">
@@ -8557,7 +8557,7 @@
       </c>
       <c r="L156" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="F159" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G159" s="2" t="b">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9550,418 +9550,418 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" t="n">
         <v>11</v>
       </c>
-      <c r="B176" s="2" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C176" s="2" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>Weak</t>
         </is>
       </c>
-      <c r="D176" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E176" s="2" t="inlineStr">
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" s="2" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G176" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" s="2" t="inlineStr">
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="n">
+      <c r="A177" t="n">
         <v>11</v>
       </c>
-      <c r="B177" s="2" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C177" s="2" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>GPS</t>
         </is>
       </c>
-      <c r="D177" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E177" s="2" t="inlineStr">
+      <c r="D177" t="n">
+        <v>1</v>
+      </c>
+      <c r="E177" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F177" s="2" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G177" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" s="2" t="inlineStr">
+      <c r="G177" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K177" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L177" s="2" t="inlineStr">
+      <c r="I177" t="b">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K177" t="b">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="n">
+      <c r="A178" t="n">
         <v>11</v>
       </c>
-      <c r="B178" s="2" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C178" s="2" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="D178" s="2" t="n">
+      <c r="D178" t="n">
         <v>2</v>
       </c>
-      <c r="E178" s="2" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F178" s="2" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G178" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" s="2" t="inlineStr">
+      <c r="G178" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K178" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L178" s="2" t="inlineStr">
+      <c r="I178" t="b">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K178" t="b">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="n">
+      <c r="A179" t="n">
         <v>11</v>
       </c>
-      <c r="B179" s="2" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C179" s="2" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>Positioning</t>
         </is>
       </c>
-      <c r="D179" s="2" t="n">
+      <c r="D179" t="n">
         <v>3</v>
       </c>
-      <c r="E179" s="2" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F179" s="2" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G179" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" s="2" t="inlineStr">
+      <c r="G179" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L179" s="2" t="inlineStr">
+      <c r="I179" t="b">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K179" t="b">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="n">
+      <c r="A180" t="n">
         <v>11</v>
       </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
+      <c r="C180" t="inlineStr">
         <is>
           <t>accuracy</t>
         </is>
       </c>
-      <c r="D180" s="2" t="n">
+      <c r="D180" t="n">
         <v>4</v>
       </c>
-      <c r="E180" s="2" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F180" s="2" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G180" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" s="2" t="inlineStr">
+      <c r="G180" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K180" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L180" s="2" t="inlineStr">
+      <c r="I180" t="b">
+        <v>1</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K180" t="b">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="n">
+      <c r="A181" t="n">
         <v>11</v>
       </c>
-      <c r="B181" s="2" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C181" s="2" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="D181" s="2" t="n">
+      <c r="D181" t="n">
         <v>5</v>
       </c>
-      <c r="E181" s="2" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F181" s="2" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G181" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" s="2" t="inlineStr">
+      <c r="G181" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L181" s="2" t="inlineStr">
+      <c r="I181" t="b">
+        <v>1</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K181" t="b">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="n">
+      <c r="A182" t="n">
         <v>11</v>
       </c>
-      <c r="B182" s="2" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C182" s="2" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="D182" s="2" t="n">
+      <c r="D182" t="n">
         <v>6</v>
       </c>
-      <c r="E182" s="2" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F182" s="2" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G182" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" s="2" t="inlineStr">
+      <c r="G182" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L182" s="2" t="inlineStr">
+      <c r="I182" t="b">
+        <v>1</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K182" t="b">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="n">
+      <c r="A183" t="n">
         <v>11</v>
       </c>
-      <c r="B183" s="2" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C183" s="2" t="inlineStr">
+      <c r="C183" t="inlineStr">
         <is>
           <t>compromised</t>
         </is>
       </c>
-      <c r="D183" s="2" t="n">
+      <c r="D183" t="n">
         <v>7</v>
       </c>
-      <c r="E183" s="2" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G183" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" s="2" t="inlineStr">
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G183" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K183" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L183" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="I183" t="b">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K183" t="b">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10226,210 +10226,210 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="n">
+      <c r="A189" t="n">
         <v>12</v>
       </c>
-      <c r="B189" s="2" t="inlineStr">
+      <c r="B189" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C189" s="2" t="inlineStr">
+      <c r="C189" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D189" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E189" s="2" t="inlineStr">
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F189" s="2" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G189" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" s="2" t="inlineStr">
+      <c r="G189" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J189" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K189" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L189" s="2" t="inlineStr">
+      <c r="I189" t="b">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K189" t="b">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="n">
+      <c r="A190" t="n">
         <v>12</v>
       </c>
-      <c r="B190" s="2" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C190" s="2" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D190" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E190" s="2" t="inlineStr">
+      <c r="D190" t="n">
+        <v>1</v>
+      </c>
+      <c r="E190" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F190" s="2" t="inlineStr">
+      <c r="F190" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G190" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H190" s="2" t="inlineStr">
+      <c r="G190" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I190" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J190" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K190" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L190" s="2" t="inlineStr">
+      <c r="I190" t="b">
+        <v>1</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K190" t="b">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="2" t="n">
+      <c r="A191" t="n">
         <v>12</v>
       </c>
-      <c r="B191" s="2" t="inlineStr">
+      <c r="B191" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C191" s="2" t="inlineStr">
+      <c r="C191" t="inlineStr">
         <is>
           <t>exceeds</t>
         </is>
       </c>
-      <c r="D191" s="2" t="n">
+      <c r="D191" t="n">
         <v>2</v>
       </c>
-      <c r="E191" s="2" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F191" s="2" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G191" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H191" s="2" t="inlineStr">
+      <c r="G191" t="b">
+        <v>1</v>
+      </c>
+      <c r="H191" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I191" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J191" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K191" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L191" s="2" t="inlineStr">
+      <c r="I191" t="b">
+        <v>1</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K191" t="b">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="2" t="n">
+      <c r="A192" t="n">
         <v>12</v>
       </c>
-      <c r="B192" s="2" t="inlineStr">
+      <c r="B192" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C192" s="2" t="inlineStr">
+      <c r="C192" t="inlineStr">
         <is>
           <t>nnn</t>
         </is>
       </c>
-      <c r="D192" s="2" t="n">
+      <c r="D192" t="n">
         <v>3</v>
       </c>
-      <c r="E192" s="2" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F192" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G192" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H192" s="2" t="inlineStr">
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G192" t="b">
+        <v>1</v>
+      </c>
+      <c r="H192" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I192" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J192" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K192" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L192" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="I192" t="b">
+        <v>1</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K192" t="b">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F194" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G194" s="2" t="b">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="L194" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="F195" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G195" s="2" t="b">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="L195" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10717,7 +10717,7 @@
       </c>
       <c r="F198" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G198" s="2" t="b">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="L198" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11162,262 +11162,262 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="n">
+      <c r="A207" t="n">
         <v>13</v>
       </c>
-      <c r="B207" s="2" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C207" s="2" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D207" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E207" s="2" t="inlineStr">
+      <c r="D207" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F207" s="2" t="inlineStr">
+      <c r="F207" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G207" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" s="2" t="inlineStr">
+      <c r="G207" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J207" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K207" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L207" s="2" t="inlineStr">
+      <c r="I207" t="b">
+        <v>1</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K207" t="b">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="n">
+      <c r="A208" t="n">
         <v>13</v>
       </c>
-      <c r="B208" s="2" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C208" s="2" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>Error</t>
         </is>
       </c>
-      <c r="D208" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E208" s="2" t="inlineStr">
+      <c r="D208" t="n">
+        <v>1</v>
+      </c>
+      <c r="E208" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F208" s="2" t="inlineStr">
+      <c r="F208" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G208" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" s="2" t="inlineStr">
+      <c r="G208" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J208" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K208" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L208" s="2" t="inlineStr">
+      <c r="I208" t="b">
+        <v>1</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K208" t="b">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="2" t="n">
+      <c r="A209" t="n">
         <v>13</v>
       </c>
-      <c r="B209" s="2" t="inlineStr">
+      <c r="B209" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C209" s="2" t="inlineStr">
+      <c r="C209" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D209" s="2" t="n">
+      <c r="D209" t="n">
         <v>2</v>
       </c>
-      <c r="E209" s="2" t="inlineStr">
+      <c r="E209" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F209" s="2" t="inlineStr">
+      <c r="F209" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G209" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H209" s="2" t="inlineStr">
+      <c r="G209" t="b">
+        <v>1</v>
+      </c>
+      <c r="H209" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I209" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J209" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K209" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L209" s="2" t="inlineStr">
+      <c r="I209" t="b">
+        <v>1</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K209" t="b">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="n">
+      <c r="A210" t="n">
         <v>13</v>
       </c>
-      <c r="B210" s="2" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C210" s="2" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="D210" s="2" t="n">
+      <c r="D210" t="n">
         <v>3</v>
       </c>
-      <c r="E210" s="2" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F210" s="2" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G210" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" s="2" t="inlineStr">
+      <c r="G210" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K210" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L210" s="2" t="inlineStr">
+      <c r="I210" t="b">
+        <v>1</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K210" t="b">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="n">
+      <c r="A211" t="n">
         <v>13</v>
       </c>
-      <c r="B211" s="2" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C211" s="2" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D211" s="2" t="n">
+      <c r="D211" t="n">
         <v>4</v>
       </c>
-      <c r="E211" s="2" t="inlineStr">
+      <c r="E211" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F211" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G211" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" s="2" t="inlineStr">
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G211" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K211" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L211" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="I211" t="b">
+        <v>1</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K211" t="b">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F240" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G240" s="2" t="b">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="L240" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -13421,7 +13421,7 @@
       </c>
       <c r="F250" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G250" s="2" t="b">
@@ -13445,7 +13445,7 @@
       </c>
       <c r="L250" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="F251" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G251" s="2" t="b">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="L251" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13785,7 +13785,7 @@
       </c>
       <c r="F257" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G257" s="2" t="b">
@@ -13809,7 +13809,7 @@
       </c>
       <c r="L257" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -14594,366 +14594,366 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="2" t="n">
+      <c r="A273" t="n">
         <v>17</v>
       </c>
-      <c r="B273" s="2" t="inlineStr">
+      <c r="B273" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C273" s="2" t="inlineStr">
+      <c r="C273" t="inlineStr">
         <is>
           <t>Camera</t>
         </is>
       </c>
-      <c r="D273" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E273" s="2" t="inlineStr">
+      <c r="D273" t="n">
+        <v>0</v>
+      </c>
+      <c r="E273" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F273" s="2" t="inlineStr">
+      <c r="F273" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G273" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273" s="2" t="inlineStr">
+      <c r="G273" t="b">
+        <v>1</v>
+      </c>
+      <c r="H273" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I273" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J273" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K273" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L273" s="2" t="inlineStr">
+      <c r="I273" t="b">
+        <v>1</v>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K273" t="b">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="2" t="n">
+      <c r="A274" t="n">
         <v>17</v>
       </c>
-      <c r="B274" s="2" t="inlineStr">
+      <c r="B274" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C274" s="2" t="inlineStr">
+      <c r="C274" t="inlineStr">
         <is>
           <t>RCAM</t>
         </is>
       </c>
-      <c r="D274" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E274" s="2" t="inlineStr">
+      <c r="D274" t="n">
+        <v>1</v>
+      </c>
+      <c r="E274" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F274" s="2" t="inlineStr">
+      <c r="F274" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G274" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274" s="2" t="inlineStr">
+      <c r="G274" t="b">
+        <v>1</v>
+      </c>
+      <c r="H274" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I274" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J274" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K274" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L274" s="2" t="inlineStr">
+      <c r="I274" t="b">
+        <v>1</v>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K274" t="b">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="2" t="n">
+      <c r="A275" t="n">
         <v>17</v>
       </c>
-      <c r="B275" s="2" t="inlineStr">
+      <c r="B275" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C275" s="2" t="inlineStr">
+      <c r="C275" t="inlineStr">
         <is>
           <t>not</t>
         </is>
       </c>
-      <c r="D275" s="2" t="n">
+      <c r="D275" t="n">
         <v>2</v>
       </c>
-      <c r="E275" s="2" t="inlineStr">
+      <c r="E275" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F275" s="2" t="inlineStr">
+      <c r="F275" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G275" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275" s="2" t="inlineStr">
+      <c r="G275" t="b">
+        <v>1</v>
+      </c>
+      <c r="H275" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I275" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J275" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K275" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L275" s="2" t="inlineStr">
+      <c r="I275" t="b">
+        <v>1</v>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K275" t="b">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="2" t="n">
+      <c r="A276" t="n">
         <v>17</v>
       </c>
-      <c r="B276" s="2" t="inlineStr">
+      <c r="B276" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C276" s="2" t="inlineStr">
+      <c r="C276" t="inlineStr">
         <is>
           <t>connected</t>
         </is>
       </c>
-      <c r="D276" s="2" t="n">
+      <c r="D276" t="n">
         <v>3</v>
       </c>
-      <c r="E276" s="2" t="inlineStr">
+      <c r="E276" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F276" s="2" t="inlineStr">
+      <c r="F276" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G276" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H276" s="2" t="inlineStr">
+      <c r="G276" t="b">
+        <v>1</v>
+      </c>
+      <c r="H276" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I276" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J276" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K276" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L276" s="2" t="inlineStr">
+      <c r="I276" t="b">
+        <v>1</v>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K276" t="b">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="2" t="n">
+      <c r="A277" t="n">
         <v>17</v>
       </c>
-      <c r="B277" s="2" t="inlineStr">
+      <c r="B277" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C277" s="2" t="inlineStr">
+      <c r="C277" t="inlineStr">
         <is>
           <t>Image</t>
         </is>
       </c>
-      <c r="D277" s="2" t="n">
+      <c r="D277" t="n">
         <v>4</v>
       </c>
-      <c r="E277" s="2" t="inlineStr">
+      <c r="E277" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F277" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G277" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H277" s="2" t="inlineStr">
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G277" t="b">
+        <v>1</v>
+      </c>
+      <c r="H277" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I277" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J277" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K277" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L277" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I277" t="b">
+        <v>1</v>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K277" t="b">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="2" t="n">
+      <c r="A278" t="n">
         <v>17</v>
       </c>
-      <c r="B278" s="2" t="inlineStr">
+      <c r="B278" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C278" s="2" t="inlineStr">
+      <c r="C278" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="D278" s="2" t="n">
+      <c r="D278" t="n">
         <v>5</v>
       </c>
-      <c r="E278" s="2" t="inlineStr">
+      <c r="E278" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F278" s="2" t="inlineStr">
+      <c r="F278" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G278" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H278" s="2" t="inlineStr">
+      <c r="G278" t="b">
+        <v>1</v>
+      </c>
+      <c r="H278" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I278" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J278" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K278" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L278" s="2" t="inlineStr">
+      <c r="I278" t="b">
+        <v>1</v>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K278" t="b">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="2" t="n">
+      <c r="A279" t="n">
         <v>17</v>
       </c>
-      <c r="B279" s="2" t="inlineStr">
+      <c r="B279" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C279" s="2" t="inlineStr">
+      <c r="C279" t="inlineStr">
         <is>
           <t>affected</t>
         </is>
       </c>
-      <c r="D279" s="2" t="n">
+      <c r="D279" t="n">
         <v>6</v>
       </c>
-      <c r="E279" s="2" t="inlineStr">
+      <c r="E279" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F279" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G279" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H279" s="2" t="inlineStr">
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G279" t="b">
+        <v>1</v>
+      </c>
+      <c r="H279" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I279" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J279" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K279" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L279" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="I279" t="b">
+        <v>1</v>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K279" t="b">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -15553,7 +15553,7 @@
       </c>
       <c r="F291" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G291" s="2" t="b">
@@ -15577,7 +15577,7 @@
       </c>
       <c r="L291" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -16177,7 +16177,7 @@
       </c>
       <c r="F303" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G303" s="2" t="b">
@@ -16201,7 +16201,7 @@
       </c>
       <c r="L303" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/67/word_level_predictions_67.xlsx
@@ -502,468 +502,468 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="I2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="I3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Compass</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please contact DJI Support .</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="I6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Compass</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Please</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>contact</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>7</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>Please</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>contact</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please contact DJI Support .</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D10" s="2" t="n">
+      <c r="D10" t="n">
         <v>8</v>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3125,7 +3125,7 @@
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G52" s="2" t="b">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -3310,208 +3310,208 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D57" t="n">
+      <c r="D57" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I57" t="b">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K57" t="b">
-        <v>1</v>
-      </c>
-      <c r="L57" t="inlineStr">
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>re-install</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K58" t="b">
-        <v>1</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E59" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F59" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K59" t="b">
-        <v>1</v>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="G59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4662,416 +4662,416 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
+      <c r="A82" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C82" s="2" t="inlineStr">
         <is>
           <t>Lower</t>
         </is>
       </c>
-      <c r="D82" t="n">
+      <c r="D82" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E82" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I82" t="b">
-        <v>1</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K82" t="b">
-        <v>1</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K82" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
+      <c r="A83" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C83" s="2" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D83" t="n">
+      <c r="D83" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I83" t="b">
-        <v>1</v>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K83" t="b">
-        <v>1</v>
-      </c>
-      <c r="L83" t="inlineStr">
+      <c r="E83" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
+      <c r="A84" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C84" s="2" t="inlineStr">
         <is>
           <t>immediately</t>
         </is>
       </c>
-      <c r="D84" t="n">
+      <c r="D84" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G84" t="b">
-        <v>1</v>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I84" t="b">
-        <v>1</v>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K84" t="b">
-        <v>1</v>
-      </c>
-      <c r="L84" t="inlineStr">
+      <c r="E84" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L84" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
+      <c r="A85" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C85" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D85" t="n">
+      <c r="D85" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G85" t="b">
-        <v>1</v>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I85" t="b">
-        <v>1</v>
-      </c>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K85" t="b">
-        <v>1</v>
-      </c>
-      <c r="L85" t="inlineStr">
+      <c r="E85" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L85" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
+      <c r="A86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C86" s="2" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D86" t="n">
+      <c r="D86" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I86" t="b">
-        <v>1</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K86" t="b">
-        <v>1</v>
-      </c>
-      <c r="L86" t="inlineStr">
+      <c r="E86" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L86" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
+      <c r="A87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C87" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D87" t="n">
+      <c r="D87" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G87" t="b">
-        <v>1</v>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I87" t="b">
-        <v>1</v>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K87" t="b">
-        <v>1</v>
-      </c>
-      <c r="L87" t="inlineStr">
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I87" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K87" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L87" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
+      <c r="A88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D88" t="n">
+      <c r="D88" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G88" t="b">
-        <v>1</v>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I88" t="b">
-        <v>1</v>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K88" t="b">
-        <v>1</v>
-      </c>
-      <c r="L88" t="inlineStr">
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K88" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
+      <c r="A89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="2" t="inlineStr">
         <is>
           <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C89" s="2" t="inlineStr">
         <is>
           <t>manually</t>
         </is>
       </c>
-      <c r="D89" t="n">
+      <c r="D89" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E89" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="F89" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G89" t="b">
-        <v>1</v>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I89" t="b">
-        <v>1</v>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K89" t="b">
-        <v>1</v>
-      </c>
-      <c r="L89" t="inlineStr">
+      <c r="G89" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K89" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -5413,7 +5413,7 @@
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G96" s="2" t="b">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="F104" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G104" s="2" t="b">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="L104" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="F105" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G105" s="2" t="b">
@@ -5905,7 +5905,7 @@
       </c>
       <c r="L105" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5933,7 +5933,7 @@
       </c>
       <c r="F106" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G106" s="2" t="b">
@@ -5957,7 +5957,7 @@
       </c>
       <c r="L106" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="F107" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G107" s="2" t="b">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="L107" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="F108" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G108" s="2" t="b">
@@ -6061,7 +6061,7 @@
       </c>
       <c r="L108" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6089,7 +6089,7 @@
       </c>
       <c r="F109" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G109" s="2" t="b">
@@ -6113,7 +6113,7 @@
       </c>
       <c r="L109" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="F110" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G110" s="2" t="b">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="L110" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6193,7 +6193,7 @@
       </c>
       <c r="F111" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G111" s="2" t="b">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="L111" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6245,7 +6245,7 @@
       </c>
       <c r="F112" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G112" s="2" t="b">
@@ -6269,161 +6269,161 @@
       </c>
       <c r="L112" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
+      <c r="A113" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C113" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D113" t="n">
+      <c r="D113" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="E113" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G113" t="b">
-        <v>1</v>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I113" t="b">
-        <v>1</v>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K113" t="b">
-        <v>1</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F113" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G113" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H113" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I113" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J113" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K113" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L113" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
+      <c r="A114" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C114" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D114" t="n">
+      <c r="D114" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G114" t="b">
-        <v>1</v>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I114" t="b">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K114" t="b">
-        <v>1</v>
-      </c>
-      <c r="L114" t="inlineStr">
+      <c r="E114" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F114" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G114" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I114" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K114" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L114" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
+      <c r="A115" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" s="2" t="inlineStr">
         <is>
           <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C115" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="E115" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="F115" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G115" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I115" t="b">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K115" t="b">
-        <v>1</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="G115" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L115" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6482,416 +6482,416 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="n">
+      <c r="A117" t="n">
         <v>8</v>
       </c>
-      <c r="B117" s="2" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C117" s="2" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>Extra</t>
         </is>
       </c>
-      <c r="D117" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E117" s="2" t="inlineStr">
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F117" s="2" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G117" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H117" s="2" t="inlineStr">
+      <c r="G117" t="b">
+        <v>1</v>
+      </c>
+      <c r="H117" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L117" s="2" t="inlineStr">
+      <c r="I117" t="b">
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K117" t="b">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="n">
+      <c r="A118" t="n">
         <v>8</v>
       </c>
-      <c r="B118" s="2" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C118" s="2" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>payload</t>
         </is>
       </c>
-      <c r="D118" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E118" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F118" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G118" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H118" s="2" t="inlineStr">
+      <c r="D118" t="n">
+        <v>1</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G118" t="b">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K118" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L118" s="2" t="inlineStr">
+      <c r="I118" t="b">
+        <v>1</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K118" t="b">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" t="n">
         <v>8</v>
       </c>
-      <c r="B119" s="2" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C119" s="2" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>detected</t>
         </is>
       </c>
-      <c r="D119" s="2" t="n">
+      <c r="D119" t="n">
         <v>2</v>
       </c>
-      <c r="E119" s="2" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F119" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G119" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" s="2" t="inlineStr">
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L119" s="2" t="inlineStr">
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" t="n">
         <v>8</v>
       </c>
-      <c r="B120" s="2" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C120" s="2" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D120" s="2" t="n">
+      <c r="D120" t="n">
         <v>3</v>
       </c>
-      <c r="E120" s="2" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F120" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G120" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" s="2" t="inlineStr">
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L120" s="2" t="inlineStr">
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" t="n">
         <v>8</v>
       </c>
-      <c r="B121" s="2" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C121" s="2" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D121" s="2" t="n">
+      <c r="D121" t="n">
         <v>4</v>
       </c>
-      <c r="E121" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="inlineStr">
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="n">
+      <c r="A122" t="n">
         <v>8</v>
       </c>
-      <c r="B122" s="2" t="inlineStr">
+      <c r="B122" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C122" s="2" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D122" s="2" t="n">
+      <c r="D122" t="n">
         <v>5</v>
       </c>
-      <c r="E122" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G122" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H122" s="2" t="inlineStr">
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G122" t="b">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K122" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L122" s="2" t="inlineStr">
+      <c r="I122" t="b">
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K122" t="b">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="n">
+      <c r="A123" t="n">
         <v>8</v>
       </c>
-      <c r="B123" s="2" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C123" s="2" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>distance</t>
         </is>
       </c>
-      <c r="D123" s="2" t="n">
+      <c r="D123" t="n">
         <v>6</v>
       </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G123" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G123" t="b">
+        <v>1</v>
+      </c>
+      <c r="H123" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L123" s="2" t="inlineStr">
+      <c r="I123" t="b">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K123" t="b">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n">
+      <c r="A124" t="n">
         <v>8</v>
       </c>
-      <c r="B124" s="2" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
-      <c r="C124" s="2" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>set</t>
         </is>
       </c>
-      <c r="D124" s="2" t="n">
+      <c r="D124" t="n">
         <v>7</v>
       </c>
-      <c r="E124" s="2" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F124" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G124" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G124" t="b">
+        <v>1</v>
+      </c>
+      <c r="H124" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L124" s="2" t="inlineStr">
+      <c r="I124" t="b">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K124" t="b">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F125" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G125" s="2" t="b">
@@ -6933,11 +6933,11 @@
         </is>
       </c>
       <c r="I125" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K125" s="2" t="b">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G126" s="2" t="b">
@@ -6985,11 +6985,11 @@
         </is>
       </c>
       <c r="I126" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K126" s="2" t="b">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -7025,7 +7025,7 @@
       </c>
       <c r="F127" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G127" s="2" t="b">
@@ -7037,11 +7037,11 @@
         </is>
       </c>
       <c r="I127" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K127" s="2" t="b">
@@ -7049,7 +7049,7 @@
       </c>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -7314,780 +7314,780 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
+      <c r="A133" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B133" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C133" s="2" t="inlineStr">
         <is>
           <t>Check</t>
         </is>
       </c>
-      <c r="D133" t="n">
+      <c r="D133" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="E133" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L133" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>the</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G134" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H134" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K134" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C135" s="2" t="inlineStr">
+        <is>
+          <t>USB</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E135" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H135" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K135" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L135" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>connection</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E136" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G136" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L136" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C137" s="2" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E137" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F137" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G137" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H137" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J137" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K137" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L137" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>aircraft</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E138" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="F138" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G138" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H138" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J138" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K138" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L138" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B139" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C139" s="2" t="inlineStr">
+        <is>
+          <t>Contact</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E139" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G133" t="b">
-        <v>1</v>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I133" t="b">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K133" t="b">
-        <v>1</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
+      <c r="F139" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G139" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H139" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J139" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K139" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L139" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B140" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="D134" t="n">
-        <v>5</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G134" t="b">
-        <v>1</v>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I134" t="b">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K134" t="b">
-        <v>1</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>DJI</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F140" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G140" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H140" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J140" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K140" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L140" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B141" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>USB</t>
-        </is>
-      </c>
-      <c r="D135" t="n">
-        <v>6</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G135" t="b">
-        <v>1</v>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I135" t="b">
-        <v>1</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K135" t="b">
-        <v>1</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
+      <c r="C141" s="2" t="inlineStr">
+        <is>
+          <t>Support</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H141" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J141" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K141" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L141" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B142" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>connection</t>
-        </is>
-      </c>
-      <c r="D136" t="n">
-        <v>7</v>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G136" t="b">
-        <v>1</v>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I136" t="b">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K136" t="b">
-        <v>1</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>if</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H142" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J142" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K142" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L142" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B143" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="D137" t="n">
-        <v>8</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G137" t="b">
-        <v>1</v>
-      </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I137" t="b">
-        <v>1</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K137" t="b">
-        <v>1</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
+      <c r="C143" s="2" t="inlineStr">
+        <is>
+          <t>this</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F143" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G143" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H143" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J143" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K143" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L143" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B144" s="2" t="inlineStr">
         <is>
           <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>aircraft</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H144" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J144" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K144" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L144" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="B145" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="inlineStr">
+        <is>
+          <t>persists</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E145" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F145" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G145" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H145" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J145" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K145" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L145" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>after</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E146" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J146" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+        </is>
+      </c>
+      <c r="C147" s="2" t="inlineStr">
+        <is>
+          <t>restarting</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="E147" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G138" t="b">
-        <v>1</v>
-      </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I138" t="b">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K138" t="b">
-        <v>1</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>9</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Contact</t>
-        </is>
-      </c>
-      <c r="D139" t="n">
-        <v>10</v>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G139" t="b">
-        <v>1</v>
-      </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I139" t="b">
-        <v>1</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K139" t="b">
-        <v>1</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>9</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>DJI</t>
-        </is>
-      </c>
-      <c r="D140" t="n">
-        <v>11</v>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G140" t="b">
-        <v>1</v>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I140" t="b">
-        <v>1</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K140" t="b">
-        <v>1</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>9</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Support</t>
-        </is>
-      </c>
-      <c r="D141" t="n">
-        <v>12</v>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G141" t="b">
-        <v>1</v>
-      </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I141" t="b">
-        <v>1</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K141" t="b">
-        <v>1</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>9</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>if</t>
-        </is>
-      </c>
-      <c r="D142" t="n">
-        <v>13</v>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G142" t="b">
-        <v>1</v>
-      </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I142" t="b">
-        <v>1</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K142" t="b">
-        <v>1</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>9</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>this</t>
-        </is>
-      </c>
-      <c r="D143" t="n">
-        <v>14</v>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G143" t="b">
-        <v>1</v>
-      </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I143" t="b">
-        <v>1</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K143" t="b">
-        <v>1</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>9</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D144" t="n">
-        <v>15</v>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G144" t="b">
-        <v>1</v>
-      </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I144" t="b">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K144" t="b">
-        <v>1</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>9</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>persists</t>
-        </is>
-      </c>
-      <c r="D145" t="n">
-        <v>16</v>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G145" t="b">
-        <v>1</v>
-      </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I145" t="b">
-        <v>1</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K145" t="b">
-        <v>1</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>9</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>after</t>
-        </is>
-      </c>
-      <c r="D146" t="n">
-        <v>17</v>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I146" t="b">
-        <v>1</v>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K146" t="b">
-        <v>1</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>9</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>restarting</t>
-        </is>
-      </c>
-      <c r="D147" t="n">
-        <v>18</v>
-      </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G147" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I147" t="b">
-        <v>1</v>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K147" t="b">
-        <v>1</v>
-      </c>
-      <c r="L147" t="inlineStr">
+      <c r="G147" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -8533,7 +8533,7 @@
       </c>
       <c r="F156" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G156" s="2" t="b">
@@ -8557,7 +8557,7 @@
       </c>
       <c r="L156" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -8689,7 +8689,7 @@
       </c>
       <c r="F159" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G159" s="2" t="b">
@@ -8713,7 +8713,7 @@
       </c>
       <c r="L159" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -9550,418 +9550,418 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>Weak</t>
         </is>
       </c>
-      <c r="D176" t="n">
-        <v>0</v>
-      </c>
-      <c r="E176" t="inlineStr">
+      <c r="D176" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="F176" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" t="inlineStr">
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr">
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B177" s="2" t="inlineStr">
+        <is>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="inlineStr">
+        <is>
+          <t>GPS</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H177" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
+      <c r="I177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J177" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L177" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B178" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>GPS</t>
-        </is>
-      </c>
-      <c r="D177" t="n">
-        <v>1</v>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G177" t="b">
-        <v>1</v>
-      </c>
-      <c r="H177" t="inlineStr">
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>signal</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E178" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H178" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I177" t="b">
-        <v>1</v>
-      </c>
-      <c r="J177" t="inlineStr">
+      <c r="I178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L178" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B179" s="2" t="inlineStr">
+        <is>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+        </is>
+      </c>
+      <c r="C179" s="2" t="inlineStr">
+        <is>
+          <t>Positioning</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E179" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F179" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G179" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H179" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K177" t="b">
-        <v>1</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
+      <c r="I179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J179" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K179" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L179" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B180" s="2" t="inlineStr">
         <is>
           <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>signal</t>
-        </is>
-      </c>
-      <c r="D178" t="n">
-        <v>2</v>
-      </c>
-      <c r="E178" t="inlineStr">
+      <c r="C180" s="2" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G180" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H180" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L180" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B181" s="2" t="inlineStr">
+        <is>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+        </is>
+      </c>
+      <c r="C181" s="2" t="inlineStr">
+        <is>
+          <t>may</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G181" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H181" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J181" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K181" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L181" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>be</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L182" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B183" s="2" t="inlineStr">
+        <is>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="inlineStr">
+        <is>
+          <t>compromised</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E183" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G178" t="b">
-        <v>1</v>
-      </c>
-      <c r="H178" t="inlineStr">
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H183" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I178" t="b">
-        <v>1</v>
-      </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K178" t="b">
-        <v>1</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="I183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L183" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>11</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Positioning</t>
-        </is>
-      </c>
-      <c r="D179" t="n">
-        <v>3</v>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G179" t="b">
-        <v>1</v>
-      </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I179" t="b">
-        <v>1</v>
-      </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K179" t="b">
-        <v>1</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>11</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="D180" t="n">
-        <v>4</v>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G180" t="b">
-        <v>1</v>
-      </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I180" t="b">
-        <v>1</v>
-      </c>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K180" t="b">
-        <v>1</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>11</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>may</t>
-        </is>
-      </c>
-      <c r="D181" t="n">
-        <v>5</v>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G181" t="b">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I181" t="b">
-        <v>1</v>
-      </c>
-      <c r="J181" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K181" t="b">
-        <v>1</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>11</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>be</t>
-        </is>
-      </c>
-      <c r="D182" t="n">
-        <v>6</v>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G182" t="b">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I182" t="b">
-        <v>1</v>
-      </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K182" t="b">
-        <v>1</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>11</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>compromised</t>
-        </is>
-      </c>
-      <c r="D183" t="n">
-        <v>7</v>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G183" t="b">
-        <v>1</v>
-      </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I183" t="b">
-        <v>1</v>
-      </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K183" t="b">
-        <v>1</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10226,210 +10226,210 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
+      <c r="A189" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B189" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C189" s="2" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D189" t="n">
-        <v>0</v>
-      </c>
-      <c r="E189" t="inlineStr">
+      <c r="D189" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="F189" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G189" t="b">
-        <v>1</v>
-      </c>
-      <c r="H189" t="inlineStr">
+      <c r="G189" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H189" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I189" t="b">
-        <v>1</v>
-      </c>
-      <c r="J189" t="inlineStr">
+      <c r="I189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J189" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K189" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L189" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="inlineStr">
+        <is>
+          <t>altitude</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E190" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F190" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G190" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H190" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K189" t="b">
-        <v>1</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
+      <c r="I190" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J190" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K190" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L190" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B191" s="2" t="inlineStr">
         <is>
           <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>altitude</t>
-        </is>
-      </c>
-      <c r="D190" t="n">
-        <v>1</v>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G190" t="b">
-        <v>1</v>
-      </c>
-      <c r="H190" t="inlineStr">
+      <c r="C191" s="2" t="inlineStr">
+        <is>
+          <t>exceeds</t>
+        </is>
+      </c>
+      <c r="D191" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E191" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F191" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G191" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H191" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I190" t="b">
-        <v>1</v>
-      </c>
-      <c r="J190" t="inlineStr">
+      <c r="I191" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J191" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K191" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L191" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="inlineStr">
+        <is>
+          <t>nnn</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E192" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F192" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G192" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H192" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K190" t="b">
-        <v>1</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>12</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>exceeds</t>
-        </is>
-      </c>
-      <c r="D191" t="n">
-        <v>2</v>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G191" t="b">
-        <v>1</v>
-      </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I191" t="b">
-        <v>1</v>
-      </c>
-      <c r="J191" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K191" t="b">
-        <v>1</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>12</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>nnn</t>
-        </is>
-      </c>
-      <c r="D192" t="n">
-        <v>3</v>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G192" t="b">
-        <v>1</v>
-      </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I192" t="b">
-        <v>1</v>
-      </c>
-      <c r="J192" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K192" t="b">
-        <v>1</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="I192" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J192" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K192" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L192" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F194" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G194" s="2" t="b">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="L194" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="F195" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G195" s="2" t="b">
@@ -10585,7 +10585,7 @@
       </c>
       <c r="L195" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -10717,7 +10717,7 @@
       </c>
       <c r="F198" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G198" s="2" t="b">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="L198" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11162,262 +11162,262 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="n">
+      <c r="A207" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B207" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
+      <c r="C207" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D207" t="n">
-        <v>0</v>
-      </c>
-      <c r="E207" t="inlineStr">
+      <c r="D207" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E207" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
+      <c r="F207" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G207" t="b">
-        <v>1</v>
-      </c>
-      <c r="H207" t="inlineStr">
+      <c r="G207" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I207" t="b">
-        <v>1</v>
-      </c>
-      <c r="J207" t="inlineStr">
+      <c r="I207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L207" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E208" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H208" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K207" t="b">
-        <v>1</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
+      <c r="I208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J208" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K208" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L208" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="B209" s="2" t="inlineStr">
         <is>
           <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="D208" t="n">
-        <v>1</v>
-      </c>
-      <c r="E208" t="inlineStr">
+      <c r="C209" s="2" t="inlineStr">
+        <is>
+          <t>Compass</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E209" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F209" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G209" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H209" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I209" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J209" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K209" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L209" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E210" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F210" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G210" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J210" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K210" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L210" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B211" s="2" t="inlineStr">
+        <is>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+        </is>
+      </c>
+      <c r="C211" s="2" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="D211" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E211" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G208" t="b">
-        <v>1</v>
-      </c>
-      <c r="H208" t="inlineStr">
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H211" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I208" t="b">
-        <v>1</v>
-      </c>
-      <c r="J208" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K208" t="b">
-        <v>1</v>
-      </c>
-      <c r="L208" t="inlineStr">
+      <c r="I211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J211" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K211" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L211" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>13</v>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>Compass</t>
-        </is>
-      </c>
-      <c r="D209" t="n">
-        <v>2</v>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G209" t="b">
-        <v>1</v>
-      </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I209" t="b">
-        <v>1</v>
-      </c>
-      <c r="J209" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K209" t="b">
-        <v>1</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>13</v>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="D210" t="n">
-        <v>3</v>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G210" t="b">
-        <v>1</v>
-      </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I210" t="b">
-        <v>1</v>
-      </c>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K210" t="b">
-        <v>1</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>13</v>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="D211" t="n">
-        <v>4</v>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G211" t="b">
-        <v>1</v>
-      </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I211" t="b">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K211" t="b">
-        <v>1</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F240" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G240" s="2" t="b">
@@ -12925,7 +12925,7 @@
       </c>
       <c r="L240" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13421,7 +13421,7 @@
       </c>
       <c r="F250" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G250" s="2" t="b">
@@ -13445,7 +13445,7 @@
       </c>
       <c r="L250" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="F251" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G251" s="2" t="b">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="L251" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13525,7 +13525,7 @@
       </c>
       <c r="F252" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G252" s="2" t="b">
@@ -13549,7 +13549,7 @@
       </c>
       <c r="L252" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="F254" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G254" s="2" t="b">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="L254" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13785,7 +13785,7 @@
       </c>
       <c r="F257" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G257" s="2" t="b">
@@ -13809,7 +13809,7 @@
       </c>
       <c r="L257" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -14594,366 +14594,366 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="n">
+      <c r="A273" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B273" t="inlineStr">
+      <c r="B273" s="2" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C273" t="inlineStr">
+      <c r="C273" s="2" t="inlineStr">
         <is>
           <t>Camera</t>
         </is>
       </c>
-      <c r="D273" t="n">
-        <v>0</v>
-      </c>
-      <c r="E273" t="inlineStr">
+      <c r="D273" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E273" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F273" t="inlineStr">
+      <c r="F273" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G273" t="b">
-        <v>1</v>
-      </c>
-      <c r="H273" t="inlineStr">
+      <c r="G273" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H273" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I273" t="b">
-        <v>1</v>
-      </c>
-      <c r="J273" t="inlineStr">
+      <c r="I273" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J273" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K273" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L273" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B274" s="2" t="inlineStr">
+        <is>
+          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C274" s="2" t="inlineStr">
+        <is>
+          <t>RCAM</t>
+        </is>
+      </c>
+      <c r="D274" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E274" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F274" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G274" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H274" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K273" t="b">
-        <v>1</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="n">
+      <c r="I274" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J274" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K274" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L274" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B274" t="inlineStr">
+      <c r="B275" s="2" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>RCAM</t>
-        </is>
-      </c>
-      <c r="D274" t="n">
-        <v>1</v>
-      </c>
-      <c r="E274" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F274" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G274" t="b">
-        <v>1</v>
-      </c>
-      <c r="H274" t="inlineStr">
+      <c r="C275" s="2" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="D275" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E275" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F275" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G275" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H275" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I274" t="b">
-        <v>1</v>
-      </c>
-      <c r="J274" t="inlineStr">
+      <c r="I275" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J275" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K275" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L275" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B276" s="2" t="inlineStr">
+        <is>
+          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C276" s="2" t="inlineStr">
+        <is>
+          <t>connected</t>
+        </is>
+      </c>
+      <c r="D276" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E276" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F276" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G276" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H276" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K274" t="b">
-        <v>1</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="n">
+      <c r="I276" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J276" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K276" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L276" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B275" t="inlineStr">
+      <c r="B277" s="2" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
-        <is>
-          <t>not</t>
-        </is>
-      </c>
-      <c r="D275" t="n">
-        <v>2</v>
-      </c>
-      <c r="E275" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F275" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G275" t="b">
-        <v>1</v>
-      </c>
-      <c r="H275" t="inlineStr">
+      <c r="C277" s="2" t="inlineStr">
+        <is>
+          <t>Image</t>
+        </is>
+      </c>
+      <c r="D277" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E277" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="F277" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G277" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H277" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I275" t="b">
-        <v>1</v>
-      </c>
-      <c r="J275" t="inlineStr">
+      <c r="I277" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J277" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K277" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L277" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B278" s="2" t="inlineStr">
+        <is>
+          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
+        </is>
+      </c>
+      <c r="C278" s="2" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="D278" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E278" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F278" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G278" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H278" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K275" t="b">
-        <v>1</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="n">
+      <c r="I278" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J278" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K278" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L278" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B276" t="inlineStr">
+      <c r="B279" s="2" t="inlineStr">
         <is>
           <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>connected</t>
-        </is>
-      </c>
-      <c r="D276" t="n">
-        <v>3</v>
-      </c>
-      <c r="E276" t="inlineStr">
+      <c r="C279" s="2" t="inlineStr">
+        <is>
+          <t>affected</t>
+        </is>
+      </c>
+      <c r="D279" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E279" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G276" t="b">
-        <v>1</v>
-      </c>
-      <c r="H276" t="inlineStr">
+      <c r="F279" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G279" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H279" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I276" t="b">
-        <v>1</v>
-      </c>
-      <c r="J276" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K276" t="b">
-        <v>1</v>
-      </c>
-      <c r="L276" t="inlineStr">
+      <c r="I279" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J279" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K279" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L279" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="n">
-        <v>17</v>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C277" t="inlineStr">
-        <is>
-          <t>Image</t>
-        </is>
-      </c>
-      <c r="D277" t="n">
-        <v>4</v>
-      </c>
-      <c r="E277" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="F277" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G277" t="b">
-        <v>1</v>
-      </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I277" t="b">
-        <v>1</v>
-      </c>
-      <c r="J277" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K277" t="b">
-        <v>1</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="n">
-        <v>17</v>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C278" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="D278" t="n">
-        <v>5</v>
-      </c>
-      <c r="E278" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F278" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G278" t="b">
-        <v>1</v>
-      </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I278" t="b">
-        <v>1</v>
-      </c>
-      <c r="J278" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K278" t="b">
-        <v>1</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="n">
-        <v>17</v>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
-        </is>
-      </c>
-      <c r="C279" t="inlineStr">
-        <is>
-          <t>affected</t>
-        </is>
-      </c>
-      <c r="D279" t="n">
-        <v>6</v>
-      </c>
-      <c r="E279" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F279" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G279" t="b">
-        <v>1</v>
-      </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I279" t="b">
-        <v>1</v>
-      </c>
-      <c r="J279" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K279" t="b">
-        <v>1</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -15553,7 +15553,7 @@
       </c>
       <c r="F291" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G291" s="2" t="b">
@@ -15577,7 +15577,7 @@
       </c>
       <c r="L291" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16177,7 +16177,7 @@
       </c>
       <c r="F303" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G303" s="2" t="b">
@@ -16201,7 +16201,7 @@
       </c>
       <c r="L303" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
